--- a/ipl/Delhi Capitals/Ravichandran Ashwin.xlsx
+++ b/ipl/Delhi Capitals/Ravichandran Ashwin.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,9 +547,154 @@
         <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Ravichandran Ashwin</v>
+      </c>
+      <c r="B6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Capitals won by 33 runs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>36th Match, Abu Dhabi, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ravichandran Ashwin</v>
+      </c>
+      <c r="B7" t="str">
+        <v>20</v>
+      </c>
+      <c r="C7" t="str">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>95.23</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Capitals won by 4 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>46th Match, Sharjah, October 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ravichandran Ashwin</v>
+      </c>
+      <c r="B8" t="str">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>175.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Royals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Ravichandran Ashwin</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>66.66</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Capitals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I9" t="str">
+        <v>50th Match (N), Dubai (DSC), October 04, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Ravichandran Ashwin</v>
+      </c>
+      <c r="B10" t="str">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>112.50</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H10" t="str">
+        <v>KKR won by 3 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I10" t="str">
+        <v>41st Match, Sharjah, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>